--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3654.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3654.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.262410989550428</v>
+        <v>1.831039309501648</v>
       </c>
       <c r="B1">
-        <v>1.382011288797643</v>
+        <v>1.762451767921448</v>
       </c>
       <c r="C1">
-        <v>1.613056713412194</v>
+        <v>1.659937024116516</v>
       </c>
       <c r="D1">
-        <v>2.725053752486065</v>
+        <v>0.9971694946289062</v>
       </c>
       <c r="E1">
-        <v>7.899875315994104</v>
+        <v>0.6661605834960938</v>
       </c>
     </row>
   </sheetData>
